--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Spp1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Spp1-Itgb3.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>209.0063303333334</v>
+        <v>0.3399353333333333</v>
       </c>
       <c r="H2">
-        <v>627.018991</v>
+        <v>1.019806</v>
       </c>
       <c r="I2">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="J2">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N2">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O2">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P2">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q2">
-        <v>1874.796815393856</v>
+        <v>0.03758053097066667</v>
       </c>
       <c r="R2">
-        <v>16873.1713385447</v>
+        <v>0.338224778736</v>
       </c>
       <c r="S2">
-        <v>0.3288510960319083</v>
+        <v>0.00111836490523561</v>
       </c>
       <c r="T2">
-        <v>0.3288510960319082</v>
+        <v>0.00111836490523561</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>209.0063303333334</v>
+        <v>0.3399353333333333</v>
       </c>
       <c r="H3">
-        <v>627.018991</v>
+        <v>1.019806</v>
       </c>
       <c r="I3">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="J3">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>27.036212</v>
       </c>
       <c r="O3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q3">
-        <v>1883.579818744677</v>
+        <v>3.063521246096888</v>
       </c>
       <c r="R3">
-        <v>16952.21836870209</v>
+        <v>27.571691214872</v>
       </c>
       <c r="S3">
-        <v>0.3303916897936715</v>
+        <v>0.09116780842592886</v>
       </c>
       <c r="T3">
-        <v>0.3303916897936715</v>
+        <v>0.09116780842592888</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>209.0063303333334</v>
+        <v>0.3399353333333333</v>
       </c>
       <c r="H4">
-        <v>627.018991</v>
+        <v>1.019806</v>
       </c>
       <c r="I4">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="J4">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N4">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q4">
-        <v>90.4490918336159</v>
+        <v>0.2356836253713333</v>
       </c>
       <c r="R4">
-        <v>814.041826502543</v>
+        <v>2.121152628342</v>
       </c>
       <c r="S4">
-        <v>0.01586533684095609</v>
+        <v>0.007013745909011577</v>
       </c>
       <c r="T4">
-        <v>0.01586533684095609</v>
+        <v>0.007013745909011579</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>4.205225</v>
       </c>
       <c r="I5">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="J5">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N5">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O5">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P5">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q5">
-        <v>12.5736900336</v>
+        <v>0.1549653447333333</v>
       </c>
       <c r="R5">
-        <v>113.1632103024</v>
+        <v>1.3946881026</v>
       </c>
       <c r="S5">
-        <v>0.002205503932353432</v>
+        <v>0.004611637957238355</v>
       </c>
       <c r="T5">
-        <v>0.002205503932353432</v>
+        <v>0.004611637957238356</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>4.205225</v>
       </c>
       <c r="I6">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="J6">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>27.036212</v>
       </c>
       <c r="O6">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P6">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q6">
         <v>12.63259495641111</v>
@@ -818,10 +818,10 @@
         <v>113.6933546077</v>
       </c>
       <c r="S6">
-        <v>0.002215836224508536</v>
+        <v>0.3759353712254357</v>
       </c>
       <c r="T6">
-        <v>0.002215836224508536</v>
+        <v>0.3759353712254357</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>4.205225</v>
       </c>
       <c r="I7">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="J7">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N7">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O7">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P7">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q7">
-        <v>0.6066144529361109</v>
+        <v>0.9718541305916664</v>
       </c>
       <c r="R7">
-        <v>5.459530076425</v>
+        <v>8.746687175324999</v>
       </c>
       <c r="S7">
-        <v>0.0001064039719285146</v>
+        <v>0.02892155923795624</v>
       </c>
       <c r="T7">
-        <v>0.0001064039719285146</v>
+        <v>0.02892155923795625</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>99.18134533333331</v>
+        <v>1.681642333333333</v>
       </c>
       <c r="H8">
-        <v>297.5440359999999</v>
+        <v>5.044927</v>
       </c>
       <c r="I8">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="J8">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N8">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O8">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P8">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q8">
-        <v>889.6614283445758</v>
+        <v>0.1859089232346667</v>
       </c>
       <c r="R8">
-        <v>8006.952855101183</v>
+        <v>1.673180309112</v>
       </c>
       <c r="S8">
-        <v>0.1560521830452142</v>
+        <v>0.005532492754774508</v>
       </c>
       <c r="T8">
-        <v>0.1560521830452142</v>
+        <v>0.005532492754774508</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>99.18134533333331</v>
+        <v>1.681642333333333</v>
       </c>
       <c r="H9">
-        <v>297.5440359999999</v>
+        <v>5.044927</v>
       </c>
       <c r="I9">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="J9">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>27.036212</v>
       </c>
       <c r="O9">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P9">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q9">
-        <v>893.82929295907</v>
+        <v>15.15507954405822</v>
       </c>
       <c r="R9">
-        <v>8044.46363663163</v>
+        <v>136.395715896524</v>
       </c>
       <c r="S9">
-        <v>0.1567832525858359</v>
+        <v>0.4510023850210688</v>
       </c>
       <c r="T9">
-        <v>0.1567832525858359</v>
+        <v>0.4510023850210688</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>99.18134533333331</v>
+        <v>1.681642333333333</v>
       </c>
       <c r="H10">
-        <v>297.5440359999999</v>
+        <v>5.044927</v>
       </c>
       <c r="I10">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="J10">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N10">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O10">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P10">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q10">
-        <v>42.92148758331421</v>
+        <v>1.165914580904333</v>
       </c>
       <c r="R10">
-        <v>386.293388249828</v>
+        <v>10.493231228139</v>
       </c>
       <c r="S10">
-        <v>0.007528697573623516</v>
+        <v>0.03469663456335034</v>
       </c>
       <c r="T10">
-        <v>0.007528697573623516</v>
+        <v>0.03469663456335034</v>
       </c>
     </row>
   </sheetData>
